--- a/api/data/data.xlsx
+++ b/api/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bhavesh Gupta\Desktop\projects\petrolPumpCalculation\api\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2FADA5-C7D5-49F6-9C10-D126B903C079}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B941A69-D0E8-40B8-A8A9-D5BFE4309660}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{02C53A7E-EA29-4467-904F-A07FE7496340}"/>
   </bookViews>
@@ -458,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF08269E-8AFB-488C-A47A-7A2C635A676A}">
   <dimension ref="A1:V2311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,6 +552,15 @@
       <c r="C2" s="1">
         <v>72</v>
       </c>
+      <c r="D2" s="1">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6</v>
+      </c>
       <c r="G2" s="1">
         <v>999999999</v>
       </c>
@@ -611,6 +620,15 @@
       <c r="C3" s="1">
         <v>72</v>
       </c>
+      <c r="D3" s="1">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5</v>
+      </c>
       <c r="G3" s="1">
         <v>999999999</v>
       </c>
@@ -669,6 +687,15 @@
       </c>
       <c r="C4" s="1">
         <v>72</v>
+      </c>
+      <c r="D4" s="1">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1">
+        <v>53</v>
+      </c>
+      <c r="F4" s="1">
+        <v>45</v>
       </c>
       <c r="G4" s="1">
         <v>999999999</v>
